--- a/src/test/resources/case/Basic.xlsx
+++ b/src/test/resources/case/Basic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,15 +213,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7a80c0a724a0b19cc8465f80d9a19704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a80c0a724a0b19cc8465f80d9a19704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/src/test/resources/expected/basic.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/src/test/resources/case/token.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +566,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -601,21 +600,21 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -624,7 +623,7 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -638,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -791,7 +790,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -830,12 +829,12 @@
         <v>1502854095</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -847,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -874,7 +873,7 @@
         <v>1502854095</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -888,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,18 +898,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/Basic.xlsx
+++ b/src/test/resources/case/Basic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,86 +150,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nchr.release.microfastup.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nchr/personresume/basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attach/image/object/201708/16/20170816113200_36042.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/src/test/resources/expected/basic.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/src/test/resources/case/token.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_null</t>
+  </si>
+  <si>
+    <t>130722199708170000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105321123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2728740240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612819427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1502854095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1997-08-16T12:05:11+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nchr.release.microfastup.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nchr/personresume/basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attach/image/object/201708/16/20170816113200_36042.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/src/test/resources/expected/basic.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/src/test/resources/case/token.txt</t>
+    <t>1997-08-16T12:05:11+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +309,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -600,30 +627,30 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -635,246 +662,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1">
+        <v>382</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1">
+        <v>437</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1502854095</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>2</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>1</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>1502854095</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AK6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -898,18 +982,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/Basic.xlsx
+++ b/src/test/resources/case/Basic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="171">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,127 +65,512 @@
     <t>education</t>
   </si>
   <si>
+    <t>majors</t>
+  </si>
+  <si>
+    <t>id_code</t>
+  </si>
+  <si>
+    <t>h_address</t>
+  </si>
+  <si>
+    <t>h_province</t>
+  </si>
+  <si>
+    <t>h_city</t>
+  </si>
+  <si>
+    <t>h_district</t>
+  </si>
+  <si>
+    <t>l_province</t>
+  </si>
+  <si>
+    <t>l_city</t>
+  </si>
+  <si>
+    <t>l_district</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>work_life</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>leve</t>
+  </si>
+  <si>
+    <t>lang1</t>
+  </si>
+  <si>
+    <t>leve1</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>nchr.release.microfastup.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/nchr/personresume/basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded;charset=UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130722199708170000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105321123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2728740240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612819427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997-08-16T12:05:11+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别看爷只是一只狼，狼儿的聪明难以想象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>major</t>
-  </si>
-  <si>
-    <t>majors</t>
-  </si>
-  <si>
-    <t>id_code</t>
-  </si>
-  <si>
-    <t>h_address</t>
-  </si>
-  <si>
-    <t>h_province</t>
-  </si>
-  <si>
-    <t>h_city</t>
-  </si>
-  <si>
-    <t>h_district</t>
-  </si>
-  <si>
-    <t>l_province</t>
-  </si>
-  <si>
-    <t>l_city</t>
-  </si>
-  <si>
-    <t>l_district</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>work_life</t>
-  </si>
-  <si>
-    <t>marriage</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>leve</t>
-  </si>
-  <si>
-    <t>lang1</t>
-  </si>
-  <si>
-    <t>leve1</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>130722199708170000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nchr.release.microfastup.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/nchr/personresume/basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam.hou@microfastup.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗷呜嗷呜嗷呜~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1988-08-16T12:05:11+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attach/image/object/201708/29/20170829143116_39939.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33252619790319133X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>445301197502060283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>692</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1483</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base2</t>
+  </si>
+  <si>
+    <t>Base3</t>
+  </si>
+  <si>
+    <t>Base4</t>
+  </si>
+  <si>
+    <t>Base5</t>
+  </si>
+  <si>
+    <t>Base6</t>
+  </si>
+  <si>
+    <t>Base7</t>
+  </si>
+  <si>
+    <t>Base8</t>
+  </si>
+  <si>
+    <t>Base9</t>
+  </si>
+  <si>
+    <t>Base1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,71 +578,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded;charset=UTF-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/src/test/resources/expected/basic.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/src/test/resources/case/token.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_null</t>
-  </si>
-  <si>
-    <t>130722199708170000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0105321123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2728740240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18612819427</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1502854095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1997-08-16T12:05:11+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1997-08-16T12:05:11+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>大王灰太狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attach/image/object/201708/29/20170829143116_39939.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗷呜嗷呜嗷呜~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1988-08-16T12:05:11+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460001199605186884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别看爷只是一只狼，狼儿的聪明难以想象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>452723197910105646</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62262419811105400X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41042119940605641X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>341001199807020595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320122199706282433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/token.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/basic_base1.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/basic_base2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/basic_base3.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base4.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base5.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base6.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base7.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base8.json</t>
+  </si>
+  <si>
+    <t>/expected/basic_base9.json</t>
   </si>
 </sst>
 </file>
@@ -593,7 +988,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -627,30 +1022,30 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -662,19 +1057,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
@@ -697,20 +1096,20 @@
     <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.25" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="36" max="36" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -737,93 +1136,90 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -835,84 +1231,84 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1">
-        <v>382</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1">
-        <v>41</v>
-      </c>
-      <c r="S2" s="1">
-        <v>437</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
+      <c r="P2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>60</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -921,44 +1317,710 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="AI3" s="1">
-        <v>1502854095</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AF8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="AK6" s="2"/>
+      <c r="AF9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AE11"/>
+      <c r="AJ11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -969,31 +2031,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/Basic.xlsx
+++ b/src/test/resources/case/Basic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="164">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,42 @@
   </si>
   <si>
     <t>/attach/image/object/201708/16/20170816113200_36042.jpg</t>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -937,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1002,11 +1038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1164,11 +1200,11 @@
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>150</v>
@@ -1179,8 +1215,8 @@
       <c r="F2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>40</v>
@@ -1253,11 +1289,11 @@
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>150</v>
@@ -1342,11 +1378,11 @@
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>150</v>
@@ -1357,8 +1393,8 @@
       <c r="F4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>40</v>
@@ -1431,11 +1467,11 @@
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="1">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>150</v>
@@ -1447,7 +1483,7 @@
         <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>50</v>
@@ -1520,11 +1556,11 @@
       <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>150</v>
@@ -1535,8 +1571,8 @@
       <c r="F6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>40</v>
@@ -1609,11 +1645,11 @@
       <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>150</v>
@@ -1625,7 +1661,7 @@
         <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>50</v>
@@ -1698,11 +1734,11 @@
       <c r="A8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>150</v>
@@ -1713,8 +1749,8 @@
       <c r="F8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>40</v>
@@ -1787,11 +1823,11 @@
       <c r="A9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>150</v>
@@ -1876,11 +1912,11 @@
       <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>150</v>
@@ -1891,8 +1927,8 @@
       <c r="F10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="G10" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>40</v>

--- a/src/test/resources/case/Basic.xlsx
+++ b/src/test/resources/case/Basic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,6 +641,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1009,22 +1009,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1088,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1106,37 +1106,37 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -1145,22 +1145,22 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>13</v>
@@ -1198,803 +1198,803 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="W6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="T7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="T8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="U9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="T10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AJ10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2020,82 +2020,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
